--- a/Three node models/in.xlsx
+++ b/Three node models/in.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.eicke\Documents\Locational-investment-signals\Three node models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e0338d3ac8c54621/GitHub/Locational-investment-signals/Three node models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB235AB6-003E-4497-8B2B-DD716646F744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{DB235AB6-003E-4497-8B2B-DD716646F744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67A522A5-B1EE-4F62-8AD8-A754F0D00797}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cost" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
   <si>
     <t>Availability</t>
   </si>
@@ -167,6 +167,18 @@
   </si>
   <si>
     <t>in MW</t>
+  </si>
+  <si>
+    <t>Wind</t>
+  </si>
+  <si>
+    <t>Solar</t>
+  </si>
+  <si>
+    <t>North</t>
+  </si>
+  <si>
+    <t>South</t>
   </si>
 </sst>
 </file>
@@ -639,23 +651,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -673,6 +668,23 @@
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -758,7 +770,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -907,10 +919,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>95</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>620.6</c:v>
+                  <c:v>231.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -970,10 +982,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>32</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>732.8</c:v>
+                  <c:v>583.12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1039,7 +1051,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="589632111"/>
@@ -1099,7 +1111,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="589627951"/>
@@ -1140,7 +1152,7 @@
       <a:pPr>
         <a:defRPr sz="1100"/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1192,7 +1204,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2011,7 +2023,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="509294543"/>
@@ -2070,7 +2082,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="509296207"/>
@@ -2112,7 +2124,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2142,7 +2154,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2193,7 +2205,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2673,7 +2685,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="509307439"/>
@@ -2732,7 +2744,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="509309103"/>
@@ -2774,7 +2786,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2804,7 +2816,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4906,8 +4918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4982,10 +4994,10 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="26"/>
-      <c r="O3" s="58" t="s">
+      <c r="O3" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="59"/>
+      <c r="P3" s="65"/>
     </row>
     <row r="4" spans="1:16" s="2" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="4"/>
@@ -5035,21 +5047,21 @@
         <v>0.32</v>
       </c>
       <c r="G5" s="42">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="H5" s="40">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="N5" s="28" t="s">
         <v>13</v>
       </c>
       <c r="O5" s="12">
         <f>G5</f>
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="P5" s="13">
         <f t="shared" ref="P5" si="0">G5+H5*$P$4/1000</f>
-        <v>620.6</v>
+        <v>231.4</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -5069,21 +5081,21 @@
         <v>0.27</v>
       </c>
       <c r="G6" s="42">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H6" s="40">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="N6" s="28" t="s">
         <v>14</v>
       </c>
       <c r="O6" s="14">
         <f>G6</f>
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="P6" s="15">
         <f>G6+H6*$P$4/1000</f>
-        <v>732.8</v>
+        <v>583.12</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -5103,7 +5115,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="42">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="H7" s="40">
         <f>E7/D7+F7/D7*$C$33</f>
@@ -5112,7 +5124,7 @@
       <c r="N7" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="O7" s="56" t="s">
+      <c r="O7" s="62" t="s">
         <v>19</v>
       </c>
       <c r="P7" s="23" t="e">
@@ -5129,13 +5141,13 @@
       <c r="E8" s="9"/>
       <c r="F8" s="10"/>
       <c r="G8" s="42">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H8" s="40">
         <v>0</v>
       </c>
       <c r="N8" s="28"/>
-      <c r="O8" s="57"/>
+      <c r="O8" s="63"/>
       <c r="P8" s="43"/>
     </row>
     <row r="9" spans="1:16" ht="25.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -5171,7 +5183,7 @@
         <v>9</v>
       </c>
       <c r="C30" s="34">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.35">
@@ -5188,7 +5200,7 @@
       </c>
       <c r="C32" s="34">
         <f>C30*(1+C30)^C31/((1+C30)^C31-1)</f>
-        <v>7.8226718212273949E-2</v>
+        <v>7.0952457299229624E-2</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.35">
@@ -5266,13 +5278,13 @@
       </c>
       <c r="C44" s="11">
         <f>C41*$C$30*(1+$C$30)^C42/((1+$C$30)^C42-1)</f>
-        <v>166153.83980168874</v>
+        <v>145695.4029150875</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C45" s="1">
         <f>C44/700</f>
-        <v>237.36262828812676</v>
+        <v>208.13628987869643</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.35">
@@ -5295,8 +5307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58BF2839-4BDE-4B18-A7A4-A5F1FDEE19B7}">
   <dimension ref="B1:Y95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y20" sqref="Y20"/>
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O46" sqref="O46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5307,17 +5319,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="60"/>
+      <c r="D1" s="66"/>
       <c r="E1" s="46"/>
-      <c r="F1" s="60" t="s">
+      <c r="F1" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
     </row>
     <row r="2" spans="2:25" x14ac:dyDescent="0.35">
       <c r="C2" s="54" t="s">
@@ -5412,10 +5424,10 @@
       <c r="I5" s="45">
         <v>0</v>
       </c>
-      <c r="V5" s="61"/>
-      <c r="W5" s="62"/>
-      <c r="X5" s="63"/>
-      <c r="Y5" s="62"/>
+      <c r="V5" s="56"/>
+      <c r="W5" s="57"/>
+      <c r="X5" s="58"/>
+      <c r="Y5" s="57"/>
     </row>
     <row r="6" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="45">
@@ -5442,10 +5454,10 @@
       <c r="I6" s="45">
         <v>0</v>
       </c>
-      <c r="V6" s="64"/>
-      <c r="W6" s="65"/>
-      <c r="X6" s="66"/>
-      <c r="Y6" s="65"/>
+      <c r="V6" s="59"/>
+      <c r="W6" s="60"/>
+      <c r="X6" s="61"/>
+      <c r="Y6" s="60"/>
     </row>
     <row r="7" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="45">
@@ -5472,10 +5484,10 @@
       <c r="I7" s="45">
         <v>0.02</v>
       </c>
-      <c r="V7" s="64"/>
-      <c r="W7" s="65"/>
-      <c r="X7" s="66"/>
-      <c r="Y7" s="65"/>
+      <c r="V7" s="59"/>
+      <c r="W7" s="60"/>
+      <c r="X7" s="61"/>
+      <c r="Y7" s="60"/>
     </row>
     <row r="8" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="45">
@@ -5502,10 +5514,10 @@
       <c r="I8" s="45">
         <v>0.13</v>
       </c>
-      <c r="V8" s="64"/>
-      <c r="W8" s="65"/>
-      <c r="X8" s="66"/>
-      <c r="Y8" s="65"/>
+      <c r="V8" s="59"/>
+      <c r="W8" s="60"/>
+      <c r="X8" s="61"/>
+      <c r="Y8" s="60"/>
     </row>
     <row r="9" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="45">
@@ -5532,10 +5544,10 @@
       <c r="I9" s="45">
         <v>0.23</v>
       </c>
-      <c r="V9" s="64"/>
-      <c r="W9" s="65"/>
-      <c r="X9" s="66"/>
-      <c r="Y9" s="65"/>
+      <c r="V9" s="59"/>
+      <c r="W9" s="60"/>
+      <c r="X9" s="61"/>
+      <c r="Y9" s="60"/>
     </row>
     <row r="10" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="45">
@@ -5562,10 +5574,10 @@
       <c r="I10" s="45">
         <v>0.21</v>
       </c>
-      <c r="V10" s="64"/>
-      <c r="W10" s="65"/>
-      <c r="X10" s="66"/>
-      <c r="Y10" s="65"/>
+      <c r="V10" s="59"/>
+      <c r="W10" s="60"/>
+      <c r="X10" s="61"/>
+      <c r="Y10" s="60"/>
     </row>
     <row r="11" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="45">
@@ -5592,10 +5604,10 @@
       <c r="I11" s="45">
         <v>0.12</v>
       </c>
-      <c r="V11" s="64"/>
-      <c r="W11" s="65"/>
-      <c r="X11" s="66"/>
-      <c r="Y11" s="65"/>
+      <c r="V11" s="59"/>
+      <c r="W11" s="60"/>
+      <c r="X11" s="61"/>
+      <c r="Y11" s="60"/>
     </row>
     <row r="12" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="45">
@@ -5622,10 +5634,10 @@
       <c r="I12" s="45">
         <v>0.04</v>
       </c>
-      <c r="V12" s="64"/>
-      <c r="W12" s="65"/>
-      <c r="X12" s="66"/>
-      <c r="Y12" s="65"/>
+      <c r="V12" s="59"/>
+      <c r="W12" s="60"/>
+      <c r="X12" s="61"/>
+      <c r="Y12" s="60"/>
     </row>
     <row r="13" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="45">
@@ -5652,10 +5664,10 @@
       <c r="I13" s="45">
         <v>0</v>
       </c>
-      <c r="V13" s="64"/>
-      <c r="W13" s="65"/>
-      <c r="X13" s="66"/>
-      <c r="Y13" s="65"/>
+      <c r="V13" s="59"/>
+      <c r="W13" s="60"/>
+      <c r="X13" s="61"/>
+      <c r="Y13" s="60"/>
     </row>
     <row r="14" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="45">
@@ -5682,10 +5694,10 @@
       <c r="I14" s="45">
         <v>0</v>
       </c>
-      <c r="V14" s="64"/>
-      <c r="W14" s="65"/>
-      <c r="X14" s="66"/>
-      <c r="Y14" s="65"/>
+      <c r="V14" s="59"/>
+      <c r="W14" s="60"/>
+      <c r="X14" s="61"/>
+      <c r="Y14" s="60"/>
     </row>
     <row r="15" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B15" s="45">
@@ -5712,10 +5724,10 @@
       <c r="I15" s="45">
         <v>0</v>
       </c>
-      <c r="V15" s="64"/>
-      <c r="W15" s="65"/>
-      <c r="X15" s="66"/>
-      <c r="Y15" s="65"/>
+      <c r="V15" s="59"/>
+      <c r="W15" s="60"/>
+      <c r="X15" s="61"/>
+      <c r="Y15" s="60"/>
     </row>
     <row r="16" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B16" s="45">
@@ -5742,10 +5754,10 @@
       <c r="I16" s="45">
         <v>0</v>
       </c>
-      <c r="V16" s="64"/>
-      <c r="W16" s="65"/>
-      <c r="X16" s="66"/>
-      <c r="Y16" s="65"/>
+      <c r="V16" s="59"/>
+      <c r="W16" s="60"/>
+      <c r="X16" s="61"/>
+      <c r="Y16" s="60"/>
     </row>
     <row r="17" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B17" s="45">
@@ -5772,10 +5784,10 @@
       <c r="I17" s="45">
         <v>0</v>
       </c>
-      <c r="V17" s="64"/>
-      <c r="W17" s="65"/>
-      <c r="X17" s="66"/>
-      <c r="Y17" s="65"/>
+      <c r="V17" s="59"/>
+      <c r="W17" s="60"/>
+      <c r="X17" s="61"/>
+      <c r="Y17" s="60"/>
     </row>
     <row r="18" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B18" s="45">
@@ -5802,10 +5814,10 @@
       <c r="I18" s="45">
         <v>0.04</v>
       </c>
-      <c r="V18" s="64"/>
-      <c r="W18" s="65"/>
-      <c r="X18" s="66"/>
-      <c r="Y18" s="65"/>
+      <c r="V18" s="59"/>
+      <c r="W18" s="60"/>
+      <c r="X18" s="61"/>
+      <c r="Y18" s="60"/>
     </row>
     <row r="19" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" s="45">
@@ -5832,10 +5844,10 @@
       <c r="I19" s="45">
         <v>0.18</v>
       </c>
-      <c r="V19" s="64"/>
-      <c r="W19" s="65"/>
-      <c r="X19" s="66"/>
-      <c r="Y19" s="65"/>
+      <c r="V19" s="59"/>
+      <c r="W19" s="60"/>
+      <c r="X19" s="61"/>
+      <c r="Y19" s="60"/>
     </row>
     <row r="20" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B20" s="45">
@@ -5862,10 +5874,10 @@
       <c r="I20" s="45">
         <v>0.39</v>
       </c>
-      <c r="V20" s="64"/>
-      <c r="W20" s="65"/>
-      <c r="X20" s="66"/>
-      <c r="Y20" s="65"/>
+      <c r="V20" s="59"/>
+      <c r="W20" s="60"/>
+      <c r="X20" s="61"/>
+      <c r="Y20" s="60"/>
     </row>
     <row r="21" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B21" s="45">
@@ -5892,10 +5904,10 @@
       <c r="I21" s="45">
         <v>0.49</v>
       </c>
-      <c r="V21" s="64"/>
-      <c r="W21" s="65"/>
-      <c r="X21" s="66"/>
-      <c r="Y21" s="65"/>
+      <c r="V21" s="59"/>
+      <c r="W21" s="60"/>
+      <c r="X21" s="61"/>
+      <c r="Y21" s="60"/>
     </row>
     <row r="22" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B22" s="45">
@@ -5922,10 +5934,10 @@
       <c r="I22" s="45">
         <v>0.47</v>
       </c>
-      <c r="V22" s="64"/>
-      <c r="W22" s="65"/>
-      <c r="X22" s="66"/>
-      <c r="Y22" s="65"/>
+      <c r="V22" s="59"/>
+      <c r="W22" s="60"/>
+      <c r="X22" s="61"/>
+      <c r="Y22" s="60"/>
     </row>
     <row r="23" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B23" s="45">
@@ -5952,10 +5964,10 @@
       <c r="I23" s="45">
         <v>0.38</v>
       </c>
-      <c r="V23" s="64"/>
-      <c r="W23" s="65"/>
-      <c r="X23" s="66"/>
-      <c r="Y23" s="65"/>
+      <c r="V23" s="59"/>
+      <c r="W23" s="60"/>
+      <c r="X23" s="61"/>
+      <c r="Y23" s="60"/>
     </row>
     <row r="24" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B24" s="45">
@@ -5982,10 +5994,10 @@
       <c r="I24" s="45">
         <v>0.15</v>
       </c>
-      <c r="V24" s="64"/>
-      <c r="W24" s="65"/>
-      <c r="X24" s="66"/>
-      <c r="Y24" s="65"/>
+      <c r="V24" s="59"/>
+      <c r="W24" s="60"/>
+      <c r="X24" s="61"/>
+      <c r="Y24" s="60"/>
     </row>
     <row r="25" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B25" s="45">
@@ -6012,10 +6024,10 @@
       <c r="I25" s="45">
         <v>0.01</v>
       </c>
-      <c r="V25" s="64"/>
-      <c r="W25" s="65"/>
-      <c r="X25" s="66"/>
-      <c r="Y25" s="65"/>
+      <c r="V25" s="59"/>
+      <c r="W25" s="60"/>
+      <c r="X25" s="61"/>
+      <c r="Y25" s="60"/>
     </row>
     <row r="26" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B26" s="45">
@@ -6042,10 +6054,10 @@
       <c r="I26" s="45">
         <v>0</v>
       </c>
-      <c r="V26" s="64"/>
-      <c r="W26" s="65"/>
-      <c r="X26" s="66"/>
-      <c r="Y26" s="65"/>
+      <c r="V26" s="59"/>
+      <c r="W26" s="60"/>
+      <c r="X26" s="61"/>
+      <c r="Y26" s="60"/>
     </row>
     <row r="27" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B27" s="45">
@@ -6072,10 +6084,10 @@
       <c r="I27" s="45">
         <v>0</v>
       </c>
-      <c r="V27" s="64"/>
-      <c r="W27" s="65"/>
-      <c r="X27" s="66"/>
-      <c r="Y27" s="65"/>
+      <c r="V27" s="59"/>
+      <c r="W27" s="60"/>
+      <c r="X27" s="61"/>
+      <c r="Y27" s="60"/>
     </row>
     <row r="28" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B28" s="45">
@@ -6102,10 +6114,10 @@
       <c r="I28" s="45">
         <v>0</v>
       </c>
-      <c r="V28" s="64"/>
-      <c r="W28" s="65"/>
-      <c r="X28" s="66"/>
-      <c r="Y28" s="65"/>
+      <c r="V28" s="59"/>
+      <c r="W28" s="60"/>
+      <c r="X28" s="61"/>
+      <c r="Y28" s="60"/>
     </row>
     <row r="29" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B29" s="45">
@@ -6211,7 +6223,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B33" s="45">
         <v>30</v>
       </c>
@@ -6237,7 +6249,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B34" s="45">
         <v>31</v>
       </c>
@@ -6262,8 +6274,14 @@
       <c r="I34" s="45">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="M34" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="N34" s="45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B35" s="45">
         <v>32</v>
       </c>
@@ -6288,8 +6306,19 @@
       <c r="I35" s="45">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="L35" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="M35" s="47">
+        <f>N43</f>
+        <v>1905.3</v>
+      </c>
+      <c r="N35" s="47">
+        <f>P43</f>
+        <v>1397.9500000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B36" s="45">
         <v>33</v>
       </c>
@@ -6314,8 +6343,19 @@
       <c r="I36" s="45">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="L36" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="M36" s="47">
+        <f>O43</f>
+        <v>762.85</v>
+      </c>
+      <c r="N36" s="47">
+        <f>Q43</f>
+        <v>1043.8999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B37" s="45">
         <v>34</v>
       </c>
@@ -6341,7 +6381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B38" s="45">
         <v>35</v>
       </c>
@@ -6367,7 +6407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B39" s="45">
         <v>36</v>
       </c>
@@ -6393,7 +6433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B40" s="45">
         <v>37</v>
       </c>
@@ -6419,7 +6459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B41" s="45">
         <v>38</v>
       </c>
@@ -6444,8 +6484,20 @@
       <c r="I41" s="45">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="N41" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="O41" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="P41" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q41" s="49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B42" s="45">
         <v>39</v>
       </c>
@@ -6470,8 +6522,20 @@
       <c r="I42" s="45">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="N42" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="O42" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="P42" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q42" s="49" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B43" s="45">
         <v>40</v>
       </c>
@@ -6496,8 +6560,27 @@
       <c r="I43" s="45">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="L43" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="N43" s="51">
+        <f>(8760*N44)</f>
+        <v>1905.3</v>
+      </c>
+      <c r="O43" s="51">
+        <f t="shared" ref="O43:Q43" si="0">(8760*O44)</f>
+        <v>762.85</v>
+      </c>
+      <c r="P43" s="51">
+        <f t="shared" si="0"/>
+        <v>1397.9500000000003</v>
+      </c>
+      <c r="Q43" s="51">
+        <f t="shared" si="0"/>
+        <v>1043.8999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B44" s="45">
         <v>41</v>
       </c>
@@ -6522,8 +6605,27 @@
       <c r="I44" s="45">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="L44" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="N44" s="52">
+        <f>AVERAGE(F4:F27)</f>
+        <v>0.2175</v>
+      </c>
+      <c r="O44" s="52">
+        <f>AVERAGE(G4:G27)</f>
+        <v>8.7083333333333332E-2</v>
+      </c>
+      <c r="P44" s="52">
+        <f>AVERAGE(H4:H27)</f>
+        <v>0.15958333333333335</v>
+      </c>
+      <c r="Q44" s="52">
+        <f>AVERAGE(I4:I27)</f>
+        <v>0.11916666666666664</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B45" s="45">
         <v>42</v>
       </c>
@@ -6549,7 +6651,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B46" s="45">
         <v>43</v>
       </c>
@@ -6574,8 +6676,14 @@
       <c r="I46" s="45">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="N46" s="45">
+        <v>2500</v>
+      </c>
+      <c r="P46" s="45">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B47" s="45">
         <v>44</v>
       </c>
@@ -6601,7 +6709,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B48" s="45">
         <v>45</v>
       </c>
@@ -6714,47 +6822,9 @@
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C54" s="47"/>
-      <c r="D54" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="F54" s="51">
-        <f>(8760*F55)</f>
-        <v>1905.3</v>
-      </c>
-      <c r="G54" s="51">
-        <f t="shared" ref="G54:I54" si="0">(8760*G55)</f>
-        <v>762.85</v>
-      </c>
-      <c r="H54" s="51">
-        <f t="shared" si="0"/>
-        <v>1397.9500000000003</v>
-      </c>
-      <c r="I54" s="51">
-        <f t="shared" si="0"/>
-        <v>1043.8999999999999</v>
-      </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C55" s="47"/>
-      <c r="D55" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="F55" s="52">
-        <f>AVERAGE(F4:F27)</f>
-        <v>0.2175</v>
-      </c>
-      <c r="G55" s="52">
-        <f>AVERAGE(G4:G27)</f>
-        <v>8.7083333333333332E-2</v>
-      </c>
-      <c r="H55" s="52">
-        <f>AVERAGE(H4:H27)</f>
-        <v>0.15958333333333335</v>
-      </c>
-      <c r="I55" s="52">
-        <f>AVERAGE(I4:I27)</f>
-        <v>0.11916666666666664</v>
-      </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C56" s="47"/>

--- a/Three node models/in.xlsx
+++ b/Three node models/in.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e0338d3ac8c54621/GitHub/Locational-investment-signals/Three node models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.eicke\Documents\Locational-investment-signals\Three node models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{DB235AB6-003E-4497-8B2B-DD716646F744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67A522A5-B1EE-4F62-8AD8-A754F0D00797}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB636F1-D98F-4E2F-91D1-379A34C5F0AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cost" sheetId="2" r:id="rId1"/>
@@ -770,7 +770,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DE"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -919,10 +919,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>231.4</c:v>
+                  <c:v>603.07999999999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -985,7 +985,7 @@
                   <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>583.12</c:v>
+                  <c:v>679.48</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1051,7 +1051,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="589632111"/>
@@ -1111,7 +1111,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="589627951"/>
@@ -1152,7 +1152,7 @@
       <a:pPr>
         <a:defRPr sz="1100"/>
       </a:pPr>
-      <a:endParaRPr lang="en-DE"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1204,7 +1204,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DE"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1250,16 +1250,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="48"/>
                 <c:pt idx="0">
-                  <c:v>0.37</c:v>
+                  <c:v>0.67</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.35</c:v>
+                  <c:v>0.51</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.32</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.31</c:v>
+                  <c:v>0.33</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.28000000000000003</c:v>
@@ -1274,22 +1274,22 @@
                   <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.27</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.19</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.15</c:v>
+                  <c:v>0.11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.12</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.09</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.1</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.11</c:v>
@@ -1298,25 +1298,25 @@
                   <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.13</c:v>
+                  <c:v>0.18</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.17</c:v>
+                  <c:v>0.28999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.21</c:v>
+                  <c:v>0.36</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.25</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.28999999999999998</c:v>
+                  <c:v>0.38</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.22</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.19</c:v>
+                  <c:v>0.26</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0.21</c:v>
@@ -1481,25 +1481,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.01</c:v>
+                  <c:v>0.11</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.17</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>0.28000000000000003</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.22</c:v>
-                </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.03</c:v>
+                  <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0</c:v>
@@ -1628,28 +1628,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="48"/>
                 <c:pt idx="0">
-                  <c:v>0.16</c:v>
+                  <c:v>0.51</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.18</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.17</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.09</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.12</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.14000000000000001</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.17</c:v>
@@ -1658,46 +1658,46 @@
                   <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.14000000000000001</c:v>
+                  <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.15</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>0.16</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="16">
                   <c:v>0.17</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.18</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.17</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.15</c:v>
-                </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.14000000000000001</c:v>
+                  <c:v>0.21</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.15</c:v>
+                  <c:v>0.31</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.17</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.18</c:v>
+                  <c:v>0.32</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.18</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.22</c:v>
+                  <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.25</c:v>
+                  <c:v>0.11</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.28000000000000003</c:v>
@@ -1868,10 +1868,10 @@
                   <c:v>0.39</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.49</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.47</c:v>
+                  <c:v>0.42</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0.38</c:v>
@@ -2023,7 +2023,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="509294543"/>
@@ -2082,7 +2082,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="509296207"/>
@@ -2124,7 +2124,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DE"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2154,7 +2154,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-DE"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2205,7 +2205,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DE"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2685,7 +2685,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="509307439"/>
@@ -2744,7 +2744,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="509309103"/>
@@ -2786,7 +2786,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DE"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2816,7 +2816,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-DE"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4918,8 +4918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5047,21 +5047,21 @@
         <v>0.32</v>
       </c>
       <c r="G5" s="42">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H5" s="40">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="N5" s="28" t="s">
         <v>13</v>
       </c>
       <c r="O5" s="12">
         <f>G5</f>
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="P5" s="13">
         <f t="shared" ref="P5" si="0">G5+H5*$P$4/1000</f>
-        <v>231.4</v>
+        <v>603.07999999999993</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -5084,7 +5084,7 @@
         <v>40</v>
       </c>
       <c r="H6" s="40">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="N6" s="28" t="s">
         <v>14</v>
@@ -5095,7 +5095,7 @@
       </c>
       <c r="P6" s="15">
         <f>G6+H6*$P$4/1000</f>
-        <v>583.12</v>
+        <v>679.48</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -5115,7 +5115,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="42">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H7" s="40">
         <f>E7/D7+F7/D7*$C$33</f>
@@ -5141,7 +5141,7 @@
       <c r="E8" s="9"/>
       <c r="F8" s="10"/>
       <c r="G8" s="42">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" s="40">
         <v>0</v>
@@ -5307,8 +5307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58BF2839-4BDE-4B18-A7A4-A5F1FDEE19B7}">
   <dimension ref="B1:Y95"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O46" sqref="O46"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5387,13 +5387,13 @@
         <v>1</v>
       </c>
       <c r="F4" s="45">
-        <v>0.37</v>
+        <v>0.67</v>
       </c>
       <c r="G4" s="45">
         <v>0</v>
       </c>
       <c r="H4" s="45">
-        <v>0.16</v>
+        <v>0.51</v>
       </c>
       <c r="I4" s="45">
         <v>0</v>
@@ -5413,13 +5413,13 @@
         <v>2</v>
       </c>
       <c r="F5" s="45">
-        <v>0.35</v>
+        <v>0.51</v>
       </c>
       <c r="G5" s="45">
         <v>0</v>
       </c>
       <c r="H5" s="45">
-        <v>0.18</v>
+        <v>0.42</v>
       </c>
       <c r="I5" s="45">
         <v>0</v>
@@ -5443,13 +5443,13 @@
         <v>3</v>
       </c>
       <c r="F6" s="45">
-        <v>0.32</v>
+        <v>0.4</v>
       </c>
       <c r="G6" s="45">
         <v>0.03</v>
       </c>
       <c r="H6" s="45">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="I6" s="45">
         <v>0</v>
@@ -5473,13 +5473,13 @@
         <v>4</v>
       </c>
       <c r="F7" s="45">
-        <v>0.31</v>
+        <v>0.33</v>
       </c>
       <c r="G7" s="45">
         <v>0.12</v>
       </c>
       <c r="H7" s="45">
-        <v>0.14000000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="I7" s="45">
         <v>0.02</v>
@@ -5509,7 +5509,7 @@
         <v>0.25</v>
       </c>
       <c r="H8" s="45">
-        <v>0.09</v>
+        <v>0.15</v>
       </c>
       <c r="I8" s="45">
         <v>0.13</v>
@@ -5539,7 +5539,7 @@
         <v>0.31</v>
       </c>
       <c r="H9" s="45">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="I9" s="45">
         <v>0.23</v>
@@ -5569,7 +5569,7 @@
         <v>0.32</v>
       </c>
       <c r="H10" s="45">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="I10" s="45">
         <v>0.21</v>
@@ -5599,7 +5599,7 @@
         <v>0.26</v>
       </c>
       <c r="H11" s="45">
-        <v>0.14000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="I11" s="45">
         <v>0.12</v>
@@ -5623,7 +5623,7 @@
         <v>9</v>
       </c>
       <c r="F12" s="45">
-        <v>0.27</v>
+        <v>0.2</v>
       </c>
       <c r="G12" s="45">
         <v>0.09</v>
@@ -5653,7 +5653,7 @@
         <v>10</v>
       </c>
       <c r="F13" s="45">
-        <v>0.19</v>
+        <v>0.15</v>
       </c>
       <c r="G13" s="45">
         <v>0</v>
@@ -5683,13 +5683,13 @@
         <v>11</v>
       </c>
       <c r="F14" s="45">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
       <c r="G14" s="45">
         <v>0</v>
       </c>
       <c r="H14" s="45">
-        <v>0.14000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="I14" s="45">
         <v>0</v>
@@ -5713,13 +5713,13 @@
         <v>12</v>
       </c>
       <c r="F15" s="45">
-        <v>0.12</v>
+        <v>0.04</v>
       </c>
       <c r="G15" s="45">
         <v>0</v>
       </c>
       <c r="H15" s="45">
-        <v>0.15</v>
+        <v>0.06</v>
       </c>
       <c r="I15" s="45">
         <v>0</v>
@@ -5743,13 +5743,13 @@
         <v>13</v>
       </c>
       <c r="F16" s="45">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
       <c r="G16" s="45">
         <v>0</v>
       </c>
       <c r="H16" s="45">
-        <v>0.16</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I16" s="45">
         <v>0</v>
@@ -5773,13 +5773,13 @@
         <v>14</v>
       </c>
       <c r="F17" s="45">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="G17" s="45">
         <v>0</v>
       </c>
       <c r="H17" s="45">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="I17" s="45">
         <v>0</v>
@@ -5806,10 +5806,10 @@
         <v>0.11</v>
       </c>
       <c r="G18" s="45">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="H18" s="45">
-        <v>0.18</v>
+        <v>0.13</v>
       </c>
       <c r="I18" s="45">
         <v>0.04</v>
@@ -5836,10 +5836,10 @@
         <v>0.15</v>
       </c>
       <c r="G19" s="45">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="H19" s="45">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="I19" s="45">
         <v>0.18</v>
@@ -5863,13 +5863,13 @@
         <v>17</v>
       </c>
       <c r="F20" s="45">
-        <v>0.13</v>
+        <v>0.18</v>
       </c>
       <c r="G20" s="45">
+        <v>0.24</v>
+      </c>
+      <c r="H20" s="45">
         <v>0.17</v>
-      </c>
-      <c r="H20" s="45">
-        <v>0.15</v>
       </c>
       <c r="I20" s="45">
         <v>0.39</v>
@@ -5893,16 +5893,16 @@
         <v>18</v>
       </c>
       <c r="F21" s="45">
-        <v>0.17</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G21" s="45">
-        <v>0.28000000000000003</v>
+        <v>0.32</v>
       </c>
       <c r="H21" s="45">
-        <v>0.14000000000000001</v>
+        <v>0.21</v>
       </c>
       <c r="I21" s="45">
-        <v>0.49</v>
+        <v>0.45</v>
       </c>
       <c r="V21" s="59"/>
       <c r="W21" s="60"/>
@@ -5923,16 +5923,16 @@
         <v>19</v>
       </c>
       <c r="F22" s="45">
-        <v>0.21</v>
+        <v>0.36</v>
       </c>
       <c r="G22" s="45">
-        <v>0.22</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="H22" s="45">
-        <v>0.15</v>
+        <v>0.31</v>
       </c>
       <c r="I22" s="45">
-        <v>0.47</v>
+        <v>0.42</v>
       </c>
       <c r="V22" s="59"/>
       <c r="W22" s="60"/>
@@ -5953,13 +5953,13 @@
         <v>20</v>
       </c>
       <c r="F23" s="45">
-        <v>0.25</v>
+        <v>0.45</v>
       </c>
       <c r="G23" s="45">
-        <v>0.03</v>
+        <v>0.13</v>
       </c>
       <c r="H23" s="45">
-        <v>0.17</v>
+        <v>0.45</v>
       </c>
       <c r="I23" s="45">
         <v>0.38</v>
@@ -5983,13 +5983,13 @@
         <v>21</v>
       </c>
       <c r="F24" s="45">
-        <v>0.28999999999999998</v>
+        <v>0.38</v>
       </c>
       <c r="G24" s="45">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="H24" s="45">
-        <v>0.18</v>
+        <v>0.32</v>
       </c>
       <c r="I24" s="45">
         <v>0.15</v>
@@ -6013,7 +6013,7 @@
         <v>22</v>
       </c>
       <c r="F25" s="45">
-        <v>0.22</v>
+        <v>0.3</v>
       </c>
       <c r="G25" s="45">
         <v>0</v>
@@ -6043,13 +6043,13 @@
         <v>23</v>
       </c>
       <c r="F26" s="45">
-        <v>0.19</v>
+        <v>0.26</v>
       </c>
       <c r="G26" s="45">
         <v>0</v>
       </c>
       <c r="H26" s="45">
-        <v>0.22</v>
+        <v>0.13</v>
       </c>
       <c r="I26" s="45">
         <v>0</v>
@@ -6079,7 +6079,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="45">
-        <v>0.25</v>
+        <v>0.11</v>
       </c>
       <c r="I27" s="45">
         <v>0</v>
@@ -6311,11 +6311,11 @@
       </c>
       <c r="M35" s="47">
         <f>N43</f>
-        <v>1905.3</v>
+        <v>2270.3000000000002</v>
       </c>
       <c r="N35" s="47">
         <f>P43</f>
-        <v>1397.9500000000003</v>
+        <v>1755.6499999999999</v>
       </c>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.35">
@@ -6348,11 +6348,11 @@
       </c>
       <c r="M36" s="47">
         <f>O43</f>
-        <v>762.85</v>
+        <v>923.45</v>
       </c>
       <c r="N36" s="47">
         <f>Q43</f>
-        <v>1043.8999999999999</v>
+        <v>1011.0499999999998</v>
       </c>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.35">
@@ -6565,19 +6565,19 @@
       </c>
       <c r="N43" s="51">
         <f>(8760*N44)</f>
-        <v>1905.3</v>
+        <v>2270.3000000000002</v>
       </c>
       <c r="O43" s="51">
         <f t="shared" ref="O43:Q43" si="0">(8760*O44)</f>
-        <v>762.85</v>
+        <v>923.45</v>
       </c>
       <c r="P43" s="51">
         <f t="shared" si="0"/>
-        <v>1397.9500000000003</v>
+        <v>1755.6499999999999</v>
       </c>
       <c r="Q43" s="51">
         <f t="shared" si="0"/>
-        <v>1043.8999999999999</v>
+        <v>1011.0499999999998</v>
       </c>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.35">
@@ -6610,19 +6610,19 @@
       </c>
       <c r="N44" s="52">
         <f>AVERAGE(F4:F27)</f>
-        <v>0.2175</v>
+        <v>0.25916666666666671</v>
       </c>
       <c r="O44" s="52">
         <f>AVERAGE(G4:G27)</f>
-        <v>8.7083333333333332E-2</v>
+        <v>0.10541666666666667</v>
       </c>
       <c r="P44" s="52">
         <f>AVERAGE(H4:H27)</f>
-        <v>0.15958333333333335</v>
+        <v>0.20041666666666666</v>
       </c>
       <c r="Q44" s="52">
         <f>AVERAGE(I4:I27)</f>
-        <v>0.11916666666666664</v>
+        <v>0.11541666666666665</v>
       </c>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.35">
@@ -6677,10 +6677,10 @@
         <v>0.53</v>
       </c>
       <c r="N46" s="45">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="P46" s="45">
-        <v>2000</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="47" spans="2:17" x14ac:dyDescent="0.35">

--- a/Three node models/in.xlsx
+++ b/Three node models/in.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.eicke\Documents\Locational-investment-signals\Three node models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB636F1-D98F-4E2F-91D1-379A34C5F0AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10AF1E00-DF09-4513-9461-A3A8ED729F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1245,12 +1245,12 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>timeseries!$F$4:$F$51</c:f>
+              <c:f>timeseries!$F$4:$F$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>0.67</c:v>
+                  <c:v>0.57999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.51</c:v>
@@ -1262,10 +1262,10 @@
                   <c:v>0.33</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.27</c:v>
+                  <c:v>0.22</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.23</c:v>
@@ -1283,19 +1283,19 @@
                   <c:v>0.11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.04</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.02</c:v>
+                  <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.11</c:v>
+                  <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.15</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.18</c:v>
@@ -1310,87 +1310,15 @@
                   <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.38</c:v>
+                  <c:v>0.36</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.3</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.26</c:v>
+                  <c:v>0.23</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.21</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.27</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.28000000000000003</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.32</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.37</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.37</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.39</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.32</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.37</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.33</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.11</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.11</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.22</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.22</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.19</c:v>
-                </c:pt>
-                <c:pt idx="47">
                   <c:v>0.18</c:v>
                 </c:pt>
               </c:numCache>
@@ -1434,10 +1362,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>timeseries!$G$4:$G$51</c:f>
+              <c:f>timeseries!$G$4:$G$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1484,10 +1412,10 @@
                   <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.11</c:v>
+                  <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.24</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0.32</c:v>
@@ -1508,78 +1436,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.22</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.22</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.24</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.18</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="47">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1623,10 +1479,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>timeseries!$H$4:$H$51</c:f>
+              <c:f>timeseries!$H$4:$H$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>0.51</c:v>
                 </c:pt>
@@ -1661,19 +1517,19 @@
                   <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.06</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.12</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.13</c:v>
+                  <c:v>0.11</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.16</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.17</c:v>
@@ -1685,7 +1541,7 @@
                   <c:v>0.31</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.45</c:v>
+                  <c:v>0.37</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0.32</c:v>
@@ -1698,78 +1554,6 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0.11</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.28000000000000003</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.33</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.42</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.43</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.36</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.38</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.42</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.36</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.38</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.28000000000000003</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.11</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.18</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.18</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.18</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1812,10 +1596,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>timeseries!$I$4:$I$51</c:f>
+              <c:f>timeseries!$I$4:$I$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1886,78 +1670,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.24</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.26</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.11</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.18</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.39</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.53</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.53</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.38</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="47">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -5307,8 +5019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58BF2839-4BDE-4B18-A7A4-A5F1FDEE19B7}">
   <dimension ref="B1:Y95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5387,7 +5099,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="45">
-        <v>0.67</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="G4" s="45">
         <v>0</v>
@@ -5503,7 +5215,7 @@
         <v>5</v>
       </c>
       <c r="F8" s="45">
-        <v>0.28000000000000003</v>
+        <v>0.24</v>
       </c>
       <c r="G8" s="45">
         <v>0.25</v>
@@ -5533,7 +5245,7 @@
         <v>6</v>
       </c>
       <c r="F9" s="45">
-        <v>0.27</v>
+        <v>0.22</v>
       </c>
       <c r="G9" s="45">
         <v>0.31</v>
@@ -5713,13 +5425,13 @@
         <v>12</v>
       </c>
       <c r="F15" s="45">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="G15" s="45">
         <v>0</v>
       </c>
       <c r="H15" s="45">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="I15" s="45">
         <v>0</v>
@@ -5743,13 +5455,13 @@
         <v>13</v>
       </c>
       <c r="F16" s="45">
-        <v>0.02</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G16" s="45">
         <v>0</v>
       </c>
       <c r="H16" s="45">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="I16" s="45">
         <v>0</v>
@@ -5779,7 +5491,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="45">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="I17" s="45">
         <v>0</v>
@@ -5803,13 +5515,13 @@
         <v>15</v>
       </c>
       <c r="F18" s="45">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="G18" s="45">
         <v>0.03</v>
       </c>
       <c r="H18" s="45">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="I18" s="45">
         <v>0.04</v>
@@ -5833,13 +5545,13 @@
         <v>16</v>
       </c>
       <c r="F19" s="45">
+        <v>0.16</v>
+      </c>
+      <c r="G19" s="45">
+        <v>0.13</v>
+      </c>
+      <c r="H19" s="45">
         <v>0.15</v>
-      </c>
-      <c r="G19" s="45">
-        <v>0.11</v>
-      </c>
-      <c r="H19" s="45">
-        <v>0.16</v>
       </c>
       <c r="I19" s="45">
         <v>0.18</v>
@@ -5866,7 +5578,7 @@
         <v>0.18</v>
       </c>
       <c r="G20" s="45">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="H20" s="45">
         <v>0.17</v>
@@ -5959,7 +5671,7 @@
         <v>0.13</v>
       </c>
       <c r="H23" s="45">
-        <v>0.45</v>
+        <v>0.37</v>
       </c>
       <c r="I23" s="45">
         <v>0.38</v>
@@ -5983,7 +5695,7 @@
         <v>21</v>
       </c>
       <c r="F24" s="45">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="G24" s="45">
         <v>0.04</v>
@@ -6013,7 +5725,7 @@
         <v>22</v>
       </c>
       <c r="F25" s="45">
-        <v>0.3</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G25" s="45">
         <v>0</v>
@@ -6043,7 +5755,7 @@
         <v>23</v>
       </c>
       <c r="F26" s="45">
-        <v>0.26</v>
+        <v>0.23</v>
       </c>
       <c r="G26" s="45">
         <v>0</v>
@@ -6073,7 +5785,7 @@
         <v>24</v>
       </c>
       <c r="F27" s="45">
-        <v>0.21</v>
+        <v>0.18</v>
       </c>
       <c r="G27" s="45">
         <v>0</v>
@@ -6311,11 +6023,11 @@
       </c>
       <c r="M35" s="47">
         <f>N43</f>
-        <v>2270.3000000000002</v>
+        <v>2204.6000000000004</v>
       </c>
       <c r="N35" s="47">
         <f>P43</f>
-        <v>1755.6499999999999</v>
+        <v>1697.2499999999998</v>
       </c>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.35">
@@ -6348,7 +6060,7 @@
       </c>
       <c r="M36" s="47">
         <f>O43</f>
-        <v>923.45</v>
+        <v>934.39999999999986</v>
       </c>
       <c r="N36" s="47">
         <f>Q43</f>
@@ -6565,15 +6277,15 @@
       </c>
       <c r="N43" s="51">
         <f>(8760*N44)</f>
-        <v>2270.3000000000002</v>
+        <v>2204.6000000000004</v>
       </c>
       <c r="O43" s="51">
         <f t="shared" ref="O43:Q43" si="0">(8760*O44)</f>
-        <v>923.45</v>
+        <v>934.39999999999986</v>
       </c>
       <c r="P43" s="51">
         <f t="shared" si="0"/>
-        <v>1755.6499999999999</v>
+        <v>1697.2499999999998</v>
       </c>
       <c r="Q43" s="51">
         <f t="shared" si="0"/>
@@ -6610,15 +6322,15 @@
       </c>
       <c r="N44" s="52">
         <f>AVERAGE(F4:F27)</f>
-        <v>0.25916666666666671</v>
+        <v>0.25166666666666671</v>
       </c>
       <c r="O44" s="52">
         <f>AVERAGE(G4:G27)</f>
-        <v>0.10541666666666667</v>
+        <v>0.10666666666666665</v>
       </c>
       <c r="P44" s="52">
         <f>AVERAGE(H4:H27)</f>
-        <v>0.20041666666666666</v>
+        <v>0.19374999999999998</v>
       </c>
       <c r="Q44" s="52">
         <f>AVERAGE(I4:I27)</f>

--- a/Three node models/in.xlsx
+++ b/Three node models/in.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.eicke\Documents\Locational-investment-signals\Three node models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Locational-investment-signals\Three node models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10AF1E00-DF09-4513-9461-A3A8ED729F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D309301-A900-4D0F-9D61-0B33781EE5BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="48">
   <si>
     <t>Availability</t>
   </si>
@@ -770,7 +770,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1051,7 +1051,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="589632111"/>
@@ -1111,7 +1111,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="589627951"/>
@@ -1152,7 +1152,7 @@
       <a:pPr>
         <a:defRPr sz="1100"/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1204,13 +1204,23 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.1478473000246188E-2"/>
+          <c:y val="0.16606170726874936"/>
+          <c:w val="0.89622853476675512"/>
+          <c:h val="0.62765559901204071"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1735,7 +1745,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="509294543"/>
@@ -1794,7 +1804,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="509296207"/>
@@ -1836,7 +1846,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1866,7 +1876,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1917,7 +1927,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2031,78 +2041,6 @@
                 <c:pt idx="23">
                   <c:v>14758.5</c:v>
                 </c:pt>
-                <c:pt idx="24">
-                  <c:v>17086.080000000002</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>18099.199999999997</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>20811.02</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>29005.449999999997</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>25128.38</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>20951.000000000004</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>25526.899999999998</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>26539.200000000001</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>21865.5</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>23309.22</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>21975.8</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>20747.88</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>16443.740000000002</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>14571.720000000001</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>13421.779999999999</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>18666.899999999998</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>19299.760000000002</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>17843.52</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>21335.17</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>17866.099999999999</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>20680.36</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>16310.65</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>14040</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>13247.19</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2216,78 +2154,6 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>34436.5</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>34689.919999999998</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>33612.800000000003</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>35434.979999999996</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>41739.550000000003</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>48778.619999999995</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>53874</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>47407.100000000006</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>43300.800000000003</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>51019.5</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>47324.78</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>40812.199999999997</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>36885.119999999995</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>26829.26</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>28286.28</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>32860.22</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>34667.100000000006</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>37464.239999999998</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>37917.479999999996</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>30701.83</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>33179.9</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>33741.64</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>36304.35</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>32760</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>26895.809999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2397,7 +2263,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="509307439"/>
@@ -2456,7 +2322,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="509309103"/>
@@ -2498,7 +2364,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2528,7 +2394,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5019,8 +4885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58BF2839-4BDE-4B18-A7A4-A5F1FDEE19B7}">
   <dimension ref="B1:Y95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28:I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5406,6 +5272,9 @@
       <c r="I14" s="45">
         <v>0</v>
       </c>
+      <c r="K14" s="45" t="s">
+        <v>3</v>
+      </c>
       <c r="V14" s="59"/>
       <c r="W14" s="60"/>
       <c r="X14" s="61"/>
@@ -5802,190 +5671,36 @@
       <c r="Y27" s="60"/>
     </row>
     <row r="28" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="45">
-        <v>25</v>
-      </c>
-      <c r="C28" s="47">
-        <v>17086.080000000002</v>
-      </c>
-      <c r="D28" s="47">
-        <v>34689.919999999998</v>
-      </c>
-      <c r="E28" s="45">
-        <v>25</v>
-      </c>
-      <c r="F28" s="45">
-        <v>0.27</v>
-      </c>
-      <c r="G28" s="45">
-        <v>0</v>
-      </c>
-      <c r="H28" s="45">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="I28" s="45">
-        <v>0</v>
-      </c>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
       <c r="V28" s="59"/>
       <c r="W28" s="60"/>
       <c r="X28" s="61"/>
       <c r="Y28" s="60"/>
     </row>
     <row r="29" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B29" s="45">
-        <v>26</v>
-      </c>
-      <c r="C29" s="47">
-        <v>18099.199999999997</v>
-      </c>
-      <c r="D29" s="47">
-        <v>33612.800000000003</v>
-      </c>
-      <c r="E29" s="45">
-        <v>26</v>
-      </c>
-      <c r="F29" s="45">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="G29" s="45">
-        <v>0</v>
-      </c>
-      <c r="H29" s="45">
-        <v>0.33</v>
-      </c>
-      <c r="I29" s="45">
-        <v>0</v>
-      </c>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
     </row>
     <row r="30" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B30" s="45">
-        <v>27</v>
-      </c>
-      <c r="C30" s="47">
-        <v>20811.02</v>
-      </c>
-      <c r="D30" s="47">
-        <v>35434.979999999996</v>
-      </c>
-      <c r="E30" s="45">
-        <v>27</v>
-      </c>
-      <c r="F30" s="45">
-        <v>0.32</v>
-      </c>
-      <c r="G30" s="45">
-        <v>0</v>
-      </c>
-      <c r="H30" s="45">
-        <v>0.42</v>
-      </c>
-      <c r="I30" s="45">
-        <v>0</v>
-      </c>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
     </row>
     <row r="31" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B31" s="45">
-        <v>28</v>
-      </c>
-      <c r="C31" s="47">
-        <v>29005.449999999997</v>
-      </c>
-      <c r="D31" s="47">
-        <v>41739.550000000003</v>
-      </c>
-      <c r="E31" s="45">
-        <v>28</v>
-      </c>
-      <c r="F31" s="45">
-        <v>0.37</v>
-      </c>
-      <c r="G31" s="45">
-        <v>0.01</v>
-      </c>
-      <c r="H31" s="45">
-        <v>0.43</v>
-      </c>
-      <c r="I31" s="45">
-        <v>0.01</v>
-      </c>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
     </row>
     <row r="32" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B32" s="45">
-        <v>29</v>
-      </c>
-      <c r="C32" s="47">
-        <v>25128.38</v>
-      </c>
-      <c r="D32" s="47">
-        <v>48778.619999999995</v>
-      </c>
-      <c r="E32" s="45">
-        <v>29</v>
-      </c>
-      <c r="F32" s="45">
-        <v>0.37</v>
-      </c>
-      <c r="G32" s="45">
-        <v>0.08</v>
-      </c>
-      <c r="H32" s="45">
-        <v>0.36</v>
-      </c>
-      <c r="I32" s="45">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B33" s="45">
-        <v>30</v>
-      </c>
-      <c r="C33" s="47">
-        <v>20951.000000000004</v>
-      </c>
-      <c r="D33" s="47">
-        <v>53874</v>
-      </c>
-      <c r="E33" s="45">
-        <v>30</v>
-      </c>
-      <c r="F33" s="45">
-        <v>0.39</v>
-      </c>
-      <c r="G33" s="45">
-        <v>0.22</v>
-      </c>
-      <c r="H33" s="45">
-        <v>0.38</v>
-      </c>
-      <c r="I33" s="45">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B34" s="45">
-        <v>31</v>
-      </c>
-      <c r="C34" s="47">
-        <v>25526.899999999998</v>
-      </c>
-      <c r="D34" s="47">
-        <v>47407.100000000006</v>
-      </c>
-      <c r="E34" s="45">
-        <v>31</v>
-      </c>
-      <c r="F34" s="45">
-        <v>0.35</v>
-      </c>
-      <c r="G34" s="45">
-        <v>0.22</v>
-      </c>
-      <c r="H34" s="45">
-        <v>0.42</v>
-      </c>
-      <c r="I34" s="45">
-        <v>0.26</v>
-      </c>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+    </row>
+    <row r="33" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+    </row>
+    <row r="34" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
       <c r="M34" s="45" t="s">
         <v>46</v>
       </c>
@@ -5993,31 +5708,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B35" s="45">
-        <v>32</v>
-      </c>
-      <c r="C35" s="47">
-        <v>26539.200000000001</v>
-      </c>
-      <c r="D35" s="47">
-        <v>43300.800000000003</v>
-      </c>
-      <c r="E35" s="45">
-        <v>32</v>
-      </c>
-      <c r="F35" s="45">
-        <v>0.32</v>
-      </c>
-      <c r="G35" s="45">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="H35" s="45">
-        <v>0.36</v>
-      </c>
-      <c r="I35" s="45">
-        <v>0.11</v>
-      </c>
+    <row r="35" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C35" s="47"/>
+      <c r="D35" s="47"/>
       <c r="L35" s="45" t="s">
         <v>44</v>
       </c>
@@ -6030,31 +5723,9 @@
         <v>1697.2499999999998</v>
       </c>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B36" s="45">
-        <v>33</v>
-      </c>
-      <c r="C36" s="47">
-        <v>21865.5</v>
-      </c>
-      <c r="D36" s="47">
-        <v>51019.5</v>
-      </c>
-      <c r="E36" s="45">
-        <v>33</v>
-      </c>
-      <c r="F36" s="45">
-        <v>0.4</v>
-      </c>
-      <c r="G36" s="45">
-        <v>0</v>
-      </c>
-      <c r="H36" s="45">
-        <v>0.38</v>
-      </c>
-      <c r="I36" s="45">
-        <v>0</v>
-      </c>
+    <row r="36" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
       <c r="L36" s="45" t="s">
         <v>45</v>
       </c>
@@ -6067,135 +5738,25 @@
         <v>1011.0499999999998</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B37" s="45">
-        <v>34</v>
-      </c>
-      <c r="C37" s="47">
-        <v>23309.22</v>
-      </c>
-      <c r="D37" s="47">
-        <v>47324.78</v>
-      </c>
-      <c r="E37" s="45">
-        <v>34</v>
-      </c>
-      <c r="F37" s="45">
-        <v>0.4</v>
-      </c>
-      <c r="G37" s="45">
-        <v>0</v>
-      </c>
-      <c r="H37" s="45">
-        <v>0.35</v>
-      </c>
-      <c r="I37" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B38" s="45">
-        <v>35</v>
-      </c>
-      <c r="C38" s="47">
-        <v>21975.8</v>
-      </c>
-      <c r="D38" s="47">
-        <v>40812.199999999997</v>
-      </c>
-      <c r="E38" s="45">
-        <v>35</v>
-      </c>
-      <c r="F38" s="45">
-        <v>0.37</v>
-      </c>
-      <c r="G38" s="45">
-        <v>0</v>
-      </c>
-      <c r="H38" s="45">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="I38" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B39" s="45">
-        <v>36</v>
-      </c>
-      <c r="C39" s="47">
-        <v>20747.88</v>
-      </c>
-      <c r="D39" s="47">
-        <v>36885.119999999995</v>
-      </c>
-      <c r="E39" s="45">
-        <v>36</v>
-      </c>
-      <c r="F39" s="45">
-        <v>0.33</v>
-      </c>
-      <c r="G39" s="45">
-        <v>0</v>
-      </c>
-      <c r="H39" s="45">
-        <v>0.25</v>
-      </c>
-      <c r="I39" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B40" s="45">
-        <v>37</v>
-      </c>
-      <c r="C40" s="47">
-        <v>16443.740000000002</v>
-      </c>
-      <c r="D40" s="47">
-        <v>26829.26</v>
-      </c>
-      <c r="E40" s="45">
-        <v>37</v>
-      </c>
-      <c r="F40" s="45">
-        <v>0.09</v>
-      </c>
-      <c r="G40" s="45">
-        <v>0</v>
-      </c>
-      <c r="H40" s="45">
-        <v>0.11</v>
-      </c>
-      <c r="I40" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B41" s="45">
-        <v>38</v>
-      </c>
-      <c r="C41" s="47">
-        <v>14571.720000000001</v>
-      </c>
-      <c r="D41" s="47">
-        <v>28286.28</v>
-      </c>
-      <c r="E41" s="45">
-        <v>38</v>
-      </c>
-      <c r="F41" s="45">
-        <v>0.1</v>
-      </c>
-      <c r="G41" s="45">
-        <v>0</v>
-      </c>
-      <c r="H41" s="45">
-        <v>0.09</v>
-      </c>
-      <c r="I41" s="45">
-        <v>0</v>
-      </c>
+    <row r="37" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C37" s="47"/>
+      <c r="D37" s="47"/>
+    </row>
+    <row r="38" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C38" s="47"/>
+      <c r="D38" s="47"/>
+    </row>
+    <row r="39" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C39" s="47"/>
+      <c r="D39" s="47"/>
+    </row>
+    <row r="40" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C40" s="47"/>
+      <c r="D40" s="47"/>
+    </row>
+    <row r="41" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C41" s="47"/>
+      <c r="D41" s="47"/>
       <c r="N41" s="49" t="s">
         <v>5</v>
       </c>
@@ -6209,31 +5770,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B42" s="45">
-        <v>39</v>
-      </c>
-      <c r="C42" s="47">
-        <v>13421.779999999999</v>
-      </c>
-      <c r="D42" s="47">
-        <v>32860.22</v>
-      </c>
-      <c r="E42" s="45">
-        <v>39</v>
-      </c>
-      <c r="F42" s="45">
-        <v>0.11</v>
-      </c>
-      <c r="G42" s="45">
-        <v>0</v>
-      </c>
-      <c r="H42" s="45">
-        <v>0.08</v>
-      </c>
-      <c r="I42" s="45">
-        <v>0.04</v>
-      </c>
+    <row r="42" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C42" s="47"/>
+      <c r="D42" s="47"/>
       <c r="N42" s="49" t="s">
         <v>25</v>
       </c>
@@ -6247,31 +5786,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B43" s="45">
-        <v>40</v>
-      </c>
-      <c r="C43" s="47">
-        <v>18666.899999999998</v>
-      </c>
-      <c r="D43" s="47">
-        <v>34667.100000000006</v>
-      </c>
-      <c r="E43" s="45">
-        <v>40</v>
-      </c>
-      <c r="F43" s="45">
-        <v>0.11</v>
-      </c>
-      <c r="G43" s="45">
-        <v>0.01</v>
-      </c>
-      <c r="H43" s="45">
-        <v>0.08</v>
-      </c>
-      <c r="I43" s="45">
-        <v>0.18</v>
-      </c>
+    <row r="43" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C43" s="47"/>
+      <c r="D43" s="47"/>
       <c r="L43" s="46" t="s">
         <v>20</v>
       </c>
@@ -6292,31 +5809,9 @@
         <v>1011.0499999999998</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B44" s="45">
-        <v>41</v>
-      </c>
-      <c r="C44" s="47">
-        <v>19299.760000000002</v>
-      </c>
-      <c r="D44" s="47">
-        <v>37464.239999999998</v>
-      </c>
-      <c r="E44" s="45">
-        <v>41</v>
-      </c>
-      <c r="F44" s="45">
-        <v>0.09</v>
-      </c>
-      <c r="G44" s="45">
-        <v>0.12</v>
-      </c>
-      <c r="H44" s="45">
-        <v>0.06</v>
-      </c>
-      <c r="I44" s="45">
-        <v>0.39</v>
-      </c>
+    <row r="44" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C44" s="47"/>
+      <c r="D44" s="47"/>
       <c r="L44" s="46" t="s">
         <v>39</v>
       </c>
@@ -6337,57 +5832,13 @@
         <v>0.11541666666666665</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B45" s="45">
-        <v>42</v>
-      </c>
-      <c r="C45" s="47">
-        <v>17843.52</v>
-      </c>
-      <c r="D45" s="47">
-        <v>37917.479999999996</v>
-      </c>
-      <c r="E45" s="45">
-        <v>42</v>
-      </c>
-      <c r="F45" s="45">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="G45" s="45">
-        <v>0.24</v>
-      </c>
-      <c r="H45" s="45">
-        <v>0.05</v>
-      </c>
-      <c r="I45" s="45">
-        <v>0.53</v>
-      </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B46" s="45">
-        <v>43</v>
-      </c>
-      <c r="C46" s="47">
-        <v>21335.17</v>
-      </c>
-      <c r="D46" s="47">
-        <v>30701.83</v>
-      </c>
-      <c r="E46" s="45">
-        <v>43</v>
-      </c>
-      <c r="F46" s="45">
-        <v>0.08</v>
-      </c>
-      <c r="G46" s="45">
-        <v>0.18</v>
-      </c>
-      <c r="H46" s="45">
-        <v>0.06</v>
-      </c>
-      <c r="I46" s="45">
-        <v>0.53</v>
-      </c>
+    <row r="45" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C45" s="47"/>
+      <c r="D45" s="47"/>
+    </row>
+    <row r="46" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C46" s="47"/>
+      <c r="D46" s="47"/>
       <c r="N46" s="45">
         <v>2200</v>
       </c>
@@ -6395,150 +5846,40 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B47" s="45">
-        <v>44</v>
-      </c>
-      <c r="C47" s="47">
-        <v>17866.099999999999</v>
-      </c>
-      <c r="D47" s="47">
-        <v>33179.9</v>
-      </c>
-      <c r="E47" s="45">
-        <v>44</v>
-      </c>
-      <c r="F47" s="45">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="G47" s="45">
-        <v>0.03</v>
-      </c>
-      <c r="H47" s="45">
-        <v>0.1</v>
-      </c>
-      <c r="I47" s="45">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B48" s="45">
-        <v>45</v>
-      </c>
-      <c r="C48" s="47">
-        <v>20680.36</v>
-      </c>
-      <c r="D48" s="47">
-        <v>33741.64</v>
-      </c>
-      <c r="E48" s="45">
-        <v>45</v>
-      </c>
-      <c r="F48" s="45">
-        <v>0.22</v>
-      </c>
-      <c r="G48" s="45">
-        <v>0</v>
-      </c>
-      <c r="H48" s="45">
-        <v>0.18</v>
-      </c>
-      <c r="I48" s="45">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B49" s="45">
-        <v>46</v>
-      </c>
-      <c r="C49" s="47">
-        <v>16310.65</v>
-      </c>
-      <c r="D49" s="47">
-        <v>36304.35</v>
-      </c>
-      <c r="E49" s="45">
-        <v>46</v>
-      </c>
-      <c r="F49" s="45">
-        <v>0.22</v>
-      </c>
-      <c r="G49" s="45">
-        <v>0</v>
-      </c>
-      <c r="H49" s="45">
-        <v>0.18</v>
-      </c>
-      <c r="I49" s="45">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B50" s="45">
-        <v>47</v>
-      </c>
-      <c r="C50" s="47">
-        <v>14040</v>
-      </c>
-      <c r="D50" s="47">
-        <v>32760</v>
-      </c>
-      <c r="E50" s="45">
-        <v>47</v>
-      </c>
-      <c r="F50" s="45">
-        <v>0.19</v>
-      </c>
-      <c r="G50" s="45">
-        <v>0</v>
-      </c>
-      <c r="H50" s="45">
-        <v>0.18</v>
-      </c>
-      <c r="I50" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B51" s="45">
-        <v>48</v>
-      </c>
-      <c r="C51" s="47">
-        <v>13247.19</v>
-      </c>
-      <c r="D51" s="47">
-        <v>26895.809999999998</v>
-      </c>
-      <c r="E51" s="45">
-        <v>48</v>
-      </c>
-      <c r="F51" s="45">
-        <v>0.18</v>
-      </c>
-      <c r="G51" s="45">
-        <v>0</v>
-      </c>
-      <c r="H51" s="45">
-        <v>0.18</v>
-      </c>
-      <c r="I51" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C47" s="47"/>
+      <c r="D47" s="47"/>
+    </row>
+    <row r="48" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C48" s="47"/>
+      <c r="D48" s="47"/>
+    </row>
+    <row r="49" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C49" s="47"/>
+      <c r="D49" s="47"/>
+    </row>
+    <row r="50" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C50" s="47"/>
+      <c r="D50" s="47"/>
+    </row>
+    <row r="51" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C51" s="47"/>
+      <c r="D51" s="47"/>
+    </row>
+    <row r="52" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C52" s="47"/>
       <c r="D52" s="47"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C53" s="47"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C54" s="47"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C55" s="47"/>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C56" s="47"/>
       <c r="D56" s="47"/>
       <c r="F56" s="53"/>
@@ -6546,7 +5887,7 @@
       <c r="H56" s="53"/>
       <c r="I56" s="53"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C57" s="47"/>
       <c r="D57" s="47"/>
       <c r="F57" s="53"/>
@@ -6554,7 +5895,7 @@
       <c r="H57" s="53"/>
       <c r="I57" s="53"/>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C58" s="47"/>
       <c r="D58" s="47"/>
       <c r="F58" s="53"/>
@@ -6562,7 +5903,7 @@
       <c r="H58" s="53"/>
       <c r="I58" s="53"/>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C59" s="47"/>
       <c r="D59" s="47"/>
       <c r="F59" s="53"/>
@@ -6570,7 +5911,7 @@
       <c r="H59" s="53"/>
       <c r="I59" s="53"/>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C60" s="47"/>
       <c r="D60" s="47"/>
       <c r="F60" s="53"/>
@@ -6578,7 +5919,7 @@
       <c r="H60" s="53"/>
       <c r="I60" s="53"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C61" s="47"/>
       <c r="D61" s="47"/>
       <c r="F61" s="53"/>
@@ -6586,7 +5927,7 @@
       <c r="H61" s="53"/>
       <c r="I61" s="53"/>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C62" s="47"/>
       <c r="D62" s="47"/>
       <c r="F62" s="53"/>
@@ -6594,7 +5935,7 @@
       <c r="H62" s="53"/>
       <c r="I62" s="53"/>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C63" s="47"/>
       <c r="D63" s="47"/>
       <c r="F63" s="53"/>
@@ -6602,7 +5943,7 @@
       <c r="H63" s="53"/>
       <c r="I63" s="53"/>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C64" s="47"/>
       <c r="D64" s="47"/>
       <c r="F64" s="53"/>
